--- a/biology/Botanique/Cordia_nodosa/Cordia_nodosa.xlsx
+++ b/biology/Botanique/Cordia_nodosa/Cordia_nodosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cordia nodosa est une espèce d'arbuste myrmécophile, appartenant à la famille des Cordiaceae (anciennement des Boraginaceae), connue en Guyane sous les noms de lamoussé fourmi, bois fourmi (créole), yawa taɨ (Wayãpi), wiwis kasiuβan (Palikur), ou grão-de-galo, arua-felpudo (portugais)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cordia nodosa est une espèce d'arbuste myrmécophile, appartenant à la famille des Cordiaceae (anciennement des Boraginaceae), connue en Guyane sous les noms de lamoussé fourmi, bois fourmi (créole), yawa taɨ (Wayãpi), wiwis kasiuβan (Palikur), ou grão-de-galo, arua-felpudo (portugais).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cordia nodosa est présente dans le nord de l'Amérique du sud.
 </t>
@@ -542,9 +556,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce petit arbre, fréquent dans le sous-bois des forêts secondaires ou ancienne, produit des nœuds creux et renflés, servant de domaties à des fourmis venimeuses comme Allomerus octoarticulatus (Solenopsidini)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce petit arbre, fréquent dans le sous-bois des forêts secondaires ou ancienne, produit des nœuds creux et renflés, servant de domaties à des fourmis venimeuses comme Allomerus octoarticulatus (Solenopsidini).
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'écorce est employée pour confectionner un remède contre les essoufflements et le rhume chez les Wayãpi. Les Palikur baignent les enfants et les chiens dans la décoction des feuilles pour les rendre obéissants[2].
-Au Guyana, Amérindiens du nord-ouest soignent l'hypertension avec des tisanes de feuilles sèches, tandis que les Warao l'utilisent dans le traitement de la coqueluche[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'écorce est employée pour confectionner un remède contre les essoufflements et le rhume chez les Wayãpi. Les Palikur baignent les enfants et les chiens dans la décoction des feuilles pour les rendre obéissants.
+Au Guyana, Amérindiens du nord-ouest soignent l'hypertension avec des tisanes de feuilles sèches, tandis que les Warao l'utilisent dans le traitement de la coqueluche.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet (qui décrivit pour la première fois cette espèce) propose la diagnose suivante[4] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet (qui décrivit pour la première fois cette espèce) propose la diagnose suivante : 
 « 'CORDIA (collococa) foliis oblongo-ovatis, integerrimis ; floribus ſubcorymboſis ; calicibus interne tomentoſis. Lin. Spec. 174.
 Collococus foliis rugoſus, venoſis, oblongo-ovatis ; floribus laxe racemoſis. Buoun. Jam. 167. 
 Ceraſo affinis arbor baccifera, racemoſa, flore pentapetalo, herbaceo, guttato ; fructu coccinco, monoſpermo, viſcoſo ; femine rugoſo. Sloan. Cat.
